--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -1390,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2758,7 +2758,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>68</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2944,8 +2944,9 @@
       <c r="E91" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -2961,8 +2962,9 @@
       <c r="E92" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -2978,8 +2980,9 @@
       <c r="E93" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -2995,8 +2998,9 @@
       <c r="E94" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -3012,8 +3016,9 @@
       <c r="E95" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -3029,8 +3034,9 @@
       <c r="E96" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -3046,8 +3052,9 @@
       <c r="E97" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -3063,8 +3070,9 @@
       <c r="E98" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -3080,8 +3088,9 @@
       <c r="E99" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -3097,8 +3106,9 @@
       <c r="E100" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -3114,8 +3124,9 @@
       <c r="E101" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>301</v>
       </c>
@@ -3131,8 +3142,9 @@
       <c r="E102" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>304</v>
       </c>
@@ -3148,8 +3160,9 @@
       <c r="E103" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>307</v>
       </c>
@@ -3165,8 +3178,9 @@
       <c r="E104" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>310</v>
       </c>
@@ -3182,8 +3196,9 @@
       <c r="E105" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>313</v>
       </c>
@@ -3199,8 +3214,9 @@
       <c r="E106" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>316</v>
       </c>
@@ -3216,8 +3232,9 @@
       <c r="E107" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>319</v>
       </c>
@@ -3233,8 +3250,9 @@
       <c r="E108" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>10</v>
       </c>
@@ -3250,8 +3268,9 @@
       <c r="E109" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>8</v>
       </c>
@@ -3267,8 +3286,9 @@
       <c r="E110" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>325</v>
       </c>
@@ -3284,6 +3304,7 @@
       <c r="E111" s="2" t="s">
         <v>300</v>
       </c>
+      <c r="F111" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/dummy.xlsx
+++ b/dummy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="315">
   <si>
     <t>이름</t>
   </si>
@@ -369,9 +369,6 @@
     <t>010-1235-4362</t>
   </si>
   <si>
-    <t>010-3306-9443</t>
-  </si>
-  <si>
     <t>010-4670-7804</t>
   </si>
   <si>
@@ -381,9 +378,6 @@
     <t>010-2927-2742</t>
   </si>
   <si>
-    <t>010-2910-6762</t>
-  </si>
-  <si>
     <t>010-1162-8050</t>
   </si>
   <si>
@@ -417,9 +411,6 @@
     <t>010-9325-7395</t>
   </si>
   <si>
-    <t>010-9312-9820</t>
-  </si>
-  <si>
     <t>010-1993-5798</t>
   </si>
   <si>
@@ -453,9 +444,6 @@
     <t>010-7127-3410</t>
   </si>
   <si>
-    <t>010-6333-5113</t>
-  </si>
-  <si>
     <t>010-8737-3694</t>
   </si>
   <si>
@@ -483,9 +471,6 @@
     <t>010-9736-6536</t>
   </si>
   <si>
-    <t>010-7676-5470</t>
-  </si>
-  <si>
     <t>010-6714-3718</t>
   </si>
   <si>
@@ -570,9 +555,6 @@
     <t>010-4021-6090</t>
   </si>
   <si>
-    <t>010-6079-6223</t>
-  </si>
-  <si>
     <t>010-1618-4142</t>
   </si>
   <si>
@@ -669,9 +651,6 @@
     <t>경상북도 부천시 반포대로 (유진류권면)</t>
   </si>
   <si>
-    <t>경기도 안산시 상록구 도산대가 (경수강면)</t>
-  </si>
-  <si>
     <t>인천광역시 서초구 서초대38거리</t>
   </si>
   <si>
@@ -681,9 +660,6 @@
     <t>충청북도 영월군 압구정길</t>
   </si>
   <si>
-    <t>대구광역시 관악구 백제고분로 (경수이면)</t>
-  </si>
-  <si>
     <t>인천광역시 도봉구 반포대길 (예진손면)</t>
   </si>
   <si>
@@ -717,9 +693,6 @@
     <t>경기도 삼척시 도산대866가 (성호하읍)</t>
   </si>
   <si>
-    <t>대전광역시 구로구 영동대00거리 (민지이읍)</t>
-  </si>
-  <si>
     <t>광주광역시 은평구 역삼가 (상호이면)</t>
   </si>
   <si>
@@ -753,9 +726,6 @@
     <t>경상북도 천안시 동남구 논현3거리</t>
   </si>
   <si>
-    <t>광주광역시 종로구 삼성319거리 (은정박이읍)</t>
-  </si>
-  <si>
     <t>강원도 태안군 삼성로 (영호김마을)</t>
   </si>
   <si>
@@ -783,9 +753,6 @@
     <t>강원도 남양주시 언주로 (순자양이리)</t>
   </si>
   <si>
-    <t>세종특별자치시 남구 백제고분404거리</t>
-  </si>
-  <si>
     <t>충청북도 성남시 분당구 오금69가</t>
   </si>
   <si>
@@ -870,9 +837,6 @@
     <t>광주광역시 양천구 잠실1로</t>
   </si>
   <si>
-    <t>부산광역시 동대문구 서초중앙82길</t>
-  </si>
-  <si>
     <t>인천광역시 금천구 가락87로 (미정윤읍)</t>
   </si>
   <si>
@@ -985,15 +949,6 @@
   </si>
   <si>
     <t>대전 서구 괴정동 90</t>
-  </si>
-  <si>
-    <t>010-8530-5319</t>
-  </si>
-  <si>
-    <t>대전 서구 괴정동 68</t>
-  </si>
-  <si>
-    <t>010-7031-5895</t>
   </si>
   <si>
     <t>김민준</t>
@@ -1010,10 +965,6 @@
   </si>
   <si>
     <t>여성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1393,7 +1344,7 @@
   <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1426,10 +1377,10 @@
         <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1443,10 +1394,10 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1460,10 +1411,10 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1477,10 +1428,10 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1494,10 +1445,10 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1511,10 +1462,10 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E7" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1528,10 +1479,10 @@
         <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1545,10 +1496,10 @@
         <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1562,10 +1513,10 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1579,10 +1530,10 @@
         <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1596,10 +1547,10 @@
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1613,10 +1564,10 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1630,10 +1581,10 @@
         <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E14" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1647,10 +1598,10 @@
         <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1664,10 +1615,10 @@
         <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E16" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1681,10 +1632,10 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1698,440 +1649,440 @@
         <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E19" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E20" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E22" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E23" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E24" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E25" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>123</v>
       </c>
       <c r="D26" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E26" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E27" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E28" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E29" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
         <v>31</v>
-      </c>
-      <c r="B30">
-        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E30" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E31" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>129</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E32" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
         <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E33" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
         <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E34" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
         <v>36</v>
-      </c>
-      <c r="B36">
-        <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E36" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
         <v>134</v>
       </c>
       <c r="D37" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E37" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
         <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E39" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
         <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E40" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
         <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
         <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E42" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
         <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E43" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>33</v>
@@ -2140,253 +2091,253 @@
         <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E44" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
         <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E45" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
         <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E46" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
         <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
         <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E48" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
         <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E49" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
         <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E50" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
         <v>148</v>
       </c>
       <c r="D51" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E51" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
         <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E52" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
         <v>150</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E53" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
         <v>151</v>
       </c>
       <c r="D54" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E54" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
         <v>152</v>
       </c>
       <c r="D55" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E55" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
         <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E56" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
         <v>154</v>
       </c>
       <c r="D57" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E57" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
         <v>155</v>
       </c>
       <c r="D58" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E58" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>33</v>
@@ -2395,151 +2346,151 @@
         <v>156</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E59" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
         <v>157</v>
       </c>
       <c r="D60" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E60" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
         <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E61" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>159</v>
       </c>
       <c r="D62" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E62" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
         <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E63" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
         <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E64" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
         <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E65" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
         <v>163</v>
       </c>
       <c r="D66" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E66" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
         <v>164</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E67" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B68">
         <v>22</v>
@@ -2548,355 +2499,355 @@
         <v>165</v>
       </c>
       <c r="D68" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E68" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
         <v>166</v>
       </c>
       <c r="D69" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E69" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C70" t="s">
         <v>167</v>
       </c>
       <c r="D70" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E70" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
         <v>168</v>
       </c>
       <c r="D71" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E71" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
         <v>169</v>
       </c>
       <c r="D72" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E72" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
         <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E73" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
         <v>171</v>
       </c>
       <c r="D74" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E74" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s">
         <v>172</v>
       </c>
       <c r="D75" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E75" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
         <v>173</v>
       </c>
       <c r="D76" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s">
         <v>174</v>
       </c>
       <c r="D77" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E77" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
         <v>175</v>
       </c>
       <c r="D78" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E78" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
         <v>176</v>
       </c>
       <c r="D79" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E79" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
         <v>177</v>
       </c>
       <c r="D80" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E80" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
         <v>178</v>
       </c>
       <c r="D81" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E81" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
         <v>179</v>
       </c>
       <c r="D82" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E82" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
         <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E83" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
         <v>181</v>
       </c>
       <c r="D84" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E84" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
         <v>182</v>
       </c>
       <c r="D85" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E85" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s">
         <v>183</v>
       </c>
       <c r="D86" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E86" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C87" t="s">
         <v>184</v>
       </c>
       <c r="D87" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E87" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
         <v>185</v>
       </c>
       <c r="D88" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E88" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>22</v>
@@ -2905,405 +2856,285 @@
         <v>186</v>
       </c>
       <c r="D89" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E89" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C90" t="s">
         <v>187</v>
       </c>
       <c r="D90" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E90" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C91" t="s">
         <v>188</v>
       </c>
       <c r="D91" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E91" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
         <v>189</v>
       </c>
       <c r="D92" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E92" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
         <v>190</v>
       </c>
       <c r="D93" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E93" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
         <v>191</v>
       </c>
       <c r="D94" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E94" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C95" t="s">
         <v>192</v>
       </c>
       <c r="D95" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E95" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="B96">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="D96" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E96" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>292</v>
       </c>
       <c r="B97">
         <v>37</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="D97" t="s">
         <v>294</v>
       </c>
       <c r="E97" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="B98">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>296</v>
       </c>
       <c r="D98" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E98" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="B99">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
-        <v>196</v>
+        <v>299</v>
       </c>
       <c r="D99" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E99" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>301</v>
       </c>
       <c r="B100">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="D100" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E100" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="B101">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C101" t="s">
-        <v>198</v>
+        <v>305</v>
       </c>
       <c r="D101" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E101" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B102" s="2">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B103" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B104" s="2">
-        <v>32</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B105" s="2">
-        <v>21</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B106" s="2">
-        <v>31</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B107" s="2">
-        <v>29</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B108" s="2">
-        <v>26</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B109" s="2">
-        <v>28</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="2">
-        <v>21</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B111" s="2">
-        <v>39</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="F111" s="2"/>
     </row>
   </sheetData>
